--- a/biology/Mycologie/Hyménium/Hyménium.xlsx
+++ b/biology/Mycologie/Hyménium/Hyménium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hym%C3%A9nium</t>
+          <t>Hyménium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyménium (du grec humenion, « petite membrane ») est la partie fertile du sporophore des champignons. C'est un pseudo-tissu porté par l'hyménophore et donnant naissance aux spores. Il peut se présenter sous le chapeau (hyménium infère), sous forme de tubes, de lames, de plis ou d'aiguillons, tapisser la face interne (face supérieure) des champignons en forme de coupe comme les Pézizes, tapisser toutes les faces externes de champignons sans chapeau (hyménium amphigène des Clavaires) ou encore constituer l'intérieur (gléba) des Vesses-de-loup.
 L'hyménium des basidiomycètes est essentiellement composé de basides placées côte à côte, tandis que celui des ascomycètes comporte des asques, eux aussi dressés côte à côte.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hym%C3%A9nium</t>
+          <t>Hyménium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,30 +525,172 @@
           <t>Formes des hyméniums</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Morphologie de l'hyménium du sporophore. Les lames, tubes, plis, aiguillons et pores vont se trouver sous le chapeau.
 Formes principales des appareils reproducteurs des champignons.
-Lames - Tubes - Plis - Aiguillons - Pores
-On trouve cinq formes distinctes de système reproducteur sous les chapeaux des champignons; elles peuvent présenter de multiples aspects de formes complexes, de couleurs et odeurs distinctes, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hyménium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hym%C3%A9nium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Formes des hyméniums</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lames - Tubes - Plis - Aiguillons - Pores</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cinq formes distinctes de système reproducteur sous les chapeaux des champignons; elles peuvent présenter de multiples aspects de formes complexes, de couleurs et odeurs distinctes, etc.
 			Lameslamellés
 			Tubestubés
 			Aiguillonshydnés
 			Plisplissés
 			Poresporoïdes
-Glèbe
-Lorsque le système reproducteur est complètement entouré par la cuticule (Gasteromycètes), on parle de glèbe.
-La gleba, gléba ou glèbe [français canadien] est la partie fertile interne, enfermant les basides produisant les spores chez les champignons Gastéromycètes, et dont les tissus sont dissous à maturité, laissant la place à un amas de spores pulvérulent ou gélatineux. Cette masse est entourée par le péridium (deux ou trois couches) qui doit se rompre pour libérer les spores ou utiliser l'aide d'insectes[1]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hyménium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hym%C3%A9nium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Formes des hyméniums</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Glèbe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque le système reproducteur est complètement entouré par la cuticule (Gasteromycètes), on parle de glèbe.
+La gleba, gléba ou glèbe [français canadien] est la partie fertile interne, enfermant les basides produisant les spores chez les champignons Gastéromycètes, et dont les tissus sont dissous à maturité, laissant la place à un amas de spores pulvérulent ou gélatineux. Cette masse est entourée par le péridium (deux ou trois couches) qui doit se rompre pour libérer les spores ou utiliser l'aide d'insectes. 
 Le tissu stérile basal chez les Gastéromycètes est parfois nommé subgleba.
 			Glèbeglébal
-Hymenium lamellaire
-L'hymenium est lamellaire lorsqu'il présente une morphologie de lames : s'il est normal de ne pas le préciser chez les agaricale, c'est plus étonnant quand les boletaceae présentent cette caractéristique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hyménium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hym%C3%A9nium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Formes des hyméniums</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hymenium lamellaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hymenium est lamellaire lorsqu'il présente une morphologie de lames : s'il est normal de ne pas le préciser chez les agaricale, c'est plus étonnant quand les boletaceae présentent cette caractéristique.
 Exemples:
 			Weilangta phylloporus
 			Phylloporus arenicola
 			Phylloporus leucomycelinus un bolet à lames
-Hymenium tubé
-Champignons qui ont des tubes sous le chapeau
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hyménium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hym%C3%A9nium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Formes des hyméniums</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hymenium tubé</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Champignons qui ont des tubes sous le chapeau
 Les Boletaceae (Genres : Aureoboletus, Boletus, Buchwaldoboletus, Chalciporus, Leccinum, Phylloporus, Porphyrellus, Suillus, Tylopilus, et ex Xerocomus)
 Les Gyrodontaceae (Genres : Boletinus, Gyrodon, Gyroporus)
 Les Strobilomycetaceae (Genre : Strobilomyces)
@@ -544,26 +698,166 @@
 			Coupe de bolet tubé
 			Boletus badius
 			Leccinum sp.
-Hyménium plissé
-L'extérieur du chapeau plus ou moins en forme de trompette à pied plein et fausses lames plissées ou ridées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hyménium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hym%C3%A9nium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Formes des hyméniums</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hyménium plissé</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'extérieur du chapeau plus ou moins en forme de trompette à pied plein et fausses lames plissées ou ridées.
 Les Cantharellaceae (Genres : Cantharellus, Pseudocraterellus) hyménium plissé ou ridé
 Les Gomphaceae (Genres : Beenakia, Gomphus, Phaeoclavulina) :
 			Plis décurrentsCantharellus ssp.
 			Plis fort décurrentsGomphus clavatus
 			Plis ridésCraterellus lutescens
-Hyménium lisse
-L'extérieur du champignon ne présente aucune aspérité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hyménium</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hym%C3%A9nium</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Formes des hyméniums</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hyménium lisse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'extérieur du champignon ne présente aucune aspérité.
 Les Craterellaceae (Genre : Craterellus) : en forme de trompette à pied creux, hyménium lisse ou sublisse
 			hymenium lisseCraterellus cornucopioides
-Hyménium hydné
-Le chapeau soutient des aiguillons, on les trouve dans deux familles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hyménium</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hym%C3%A9nium</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Formes des hyméniums</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hyménium hydné</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau soutient des aiguillons, on les trouve dans deux familles.
 Hydnaceae (Genres : Hydnum, Paullicorticium)
 Bankeraceae (Genres : Bankera, Boletopsis, Hydnellum, Phellodon, Sarcodon)
 			Sarcodon imbricatus
 			Hydnum repandum
 			Pseudohydnum gelatinosum
-Hyménium alveolé
-L'hyménium est alvéolé lorsqu'il présente une morphologie d'alvéoles :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hyménium</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hym%C3%A9nium</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Formes des hyméniums</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Hyménium alveolé</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hyménium est alvéolé lorsqu'il présente une morphologie d'alvéoles :
 Exemples
 			Polyporus alveolaris
 			Polyporus alveolaris
@@ -571,31 +865,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hym%C3%A9nium</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hym%C3%A9nium</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hyménium</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hym%C3%A9nium</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Disposition des lames, tubes plis et aiguillons au pied (stipe)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lames, les tubes, les plis et les picots se présentent par rapport au pied de différentes manières :
 Ils sont libres s'ils ne touchent pas le pied ; adnexés s'ils sont légèrement attachés au pied ; adnés s'ils adhérent au pied de manière perpendiculaire ; subdécurrents ou décurrents s'ils descendent peu ou largement le long du pied du champignon.
@@ -616,31 +912,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hym%C3%A9nium</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hym%C3%A9nium</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hyménium</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hym%C3%A9nium</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Changement de couleur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous l'action d'une blessure ou lors d'une coupe la chair et les tubes du champignon peuvent changer et passer du jaune au bleu en quelques secondes, ceci dû à l'oxydation. C'est une caractéristique que l'on retrouve chez certains bolets. Elle n'a rien à voir avec la comestibilité. A contrario, certains champignons ne présentent aucune modification de leur chair : ils sont dits immuables.
 Exemple de cyanescence, nigrescence, immuabilité
